--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLoanBal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLoanBal.xlsx
@@ -1,28 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091E60DB-E2F7-4CA0-8F8E-D78281A507E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="SP" sheetId="3" r:id="rId3"/>
+    <sheet name="說明" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -406,15 +416,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>UnpaidInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>UnexpiredInt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumRcvInt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -492,12 +494,75 @@
 99:非關係人</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>累計回收本金</t>
+  </si>
+  <si>
+    <t>SumRcvPrin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收還款金額</t>
+  </si>
+  <si>
+    <t>放款或催收餘額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉銷呆帳金額</t>
+  </si>
+  <si>
+    <t>OvduRcvAmt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BadDebtAmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">繳息迄日    </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrevPayIntDate</t>
+  </si>
+  <si>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnpaidInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換來源LA$MSTP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料轉換來源LA$MSTP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumRcvInt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sum(Interest)  from  LoanBorTx </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. TitaHCode = '0'  訂正別 = 0:正常</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. NVL(JSON_VALUE  ("OtherFields",  '$.CaseCloseCode'), 0) in (0,1,2)  轉催收不算</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -627,8 +692,23 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +724,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,6 +953,21 @@
     </xf>
     <xf numFmtId="20" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -883,9 +984,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -976,23 +1077,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1028,23 +1112,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1220,11 +1287,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1239,10 +1306,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="4" t="s">
         <v>83</v>
       </c>
@@ -1254,8 +1321,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1267,10 +1334,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="12" t="s">
         <v>59</v>
       </c>
@@ -1282,10 +1349,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1293,10 +1360,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1304,10 +1371,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1315,10 +1382,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="4"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1442,7 +1509,7 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="30" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -1463,7 +1530,7 @@
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="26" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -1504,7 +1571,9 @@
       <c r="F16" s="33">
         <v>2</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="17" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
@@ -1526,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1601,7 +1670,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>95</v>
@@ -1616,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1624,7 +1693,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>94</v>
@@ -1647,7 +1716,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>96</v>
@@ -1662,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1685,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="32" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,7 +1794,7 @@
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="32" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -1769,7 +1838,7 @@
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="26" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -1886,10 +1955,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>14</v>
@@ -1907,10 +1976,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>14</v>
@@ -1927,103 +1996,193 @@
       <c r="A36" s="22">
         <v>28</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>35</v>
+      <c r="B36" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="51">
+        <v>16</v>
+      </c>
+      <c r="F36" s="51">
+        <v>2</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>29</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="29">
-        <v>6</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>35</v>
+      <c r="B37" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="51">
+        <v>16</v>
+      </c>
+      <c r="F37" s="51">
+        <v>2</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
         <v>30</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="51">
+        <v>16</v>
+      </c>
+      <c r="F38" s="51">
+        <v>2</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <v>31</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="52">
+        <v>8</v>
+      </c>
+      <c r="F39" s="51"/>
+      <c r="G39" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22">
+        <v>32</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22">
+        <v>33</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="29">
+        <v>6</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22">
+        <v>34</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="33"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="22">
+        <v>35</v>
+      </c>
+      <c r="B43" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C43" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D43" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E43" s="29">
         <v>6</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
-        <v>32</v>
-      </c>
-      <c r="B40" s="45" t="s">
+      <c r="F43" s="33"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="22">
+        <v>36</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="45">
+        <v>3</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47" t="s">
         <v>109</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="45">
-        <v>3</v>
-      </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +2202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2081,11 +2240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2121,4 +2280,68 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLoanBal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLoanBal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8EA3DB-6110-4FC5-B8F9-8DF57CEE1C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,21 +19,11 @@
     <sheet name="說明" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -557,11 +548,15 @@
     <t>2. NVL(JSON_VALUE  ("OtherFields",  '$.CaseCloseCode'), 0) in (0,1,2)  轉催收不算</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">sum(Principal)  from  LoanBorTx </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -809,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,10 +820,10 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -841,9 +836,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -855,13 +847,10 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,15 +862,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -906,18 +886,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -932,9 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -984,9 +955,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1077,6 +1048,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1112,6 +1100,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1287,33 +1292,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:C38"/>
+      <selection activeCell="B37" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.109375" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E1" s="5"/>
@@ -1321,78 +1326,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1411,777 +1416,776 @@
       <c r="F8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+    <row r="9" spans="1:7" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="20">
         <v>6</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="20">
         <v>7</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="17"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="20">
         <v>3</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="27">
         <v>3</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7" s="30" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="F12" s="27"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" s="25" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>5</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="20">
         <v>3</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="39" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="30" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+    <row r="14" spans="1:7" s="25" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>6</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="27">
         <v>3</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="26" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+    <row r="15" spans="1:7" s="21" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
         <v>7</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="20">
         <v>3</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="F15" s="27"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>8</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="27">
         <v>16</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="27">
         <v>2</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+    <row r="17" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
         <v>9</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="27">
         <v>16</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="27">
         <v>2</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+    <row r="18" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
         <v>10</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="27">
         <v>6</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="27">
         <v>4</v>
       </c>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
         <v>11</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="27">
         <v>16</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="27">
         <v>2</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+    <row r="20" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
         <v>12</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="27">
         <v>16</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="27">
         <v>2</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+    <row r="21" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
         <v>13</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="27">
         <v>16</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="27">
         <v>2</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+    <row r="22" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
         <v>14</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="27">
         <v>16</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="27">
         <v>2</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+    <row r="23" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
         <v>15</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="27">
         <v>16</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="27">
         <v>2</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+    <row r="24" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
         <v>16</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="27">
         <v>16</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="27">
         <v>2</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="32" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="32" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+    <row r="25" spans="1:7" s="21" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
         <v>17</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="27">
         <v>5</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="F25" s="27"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
         <v>18</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="14">
         <v>3</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="28" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="32" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+    <row r="27" spans="1:7" s="21" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <v>19</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="24">
         <v>1</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="26" customFormat="1" ht="226.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+    <row r="28" spans="1:7" s="21" customFormat="1" ht="226.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
         <v>20</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="24">
         <v>2</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28" t="s">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="26" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+    <row r="29" spans="1:7" s="21" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
         <v>21</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="27">
         <v>1</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="36" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+    <row r="30" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
         <v>22</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="24">
         <v>1</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+    <row r="31" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
         <v>23</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="24">
         <v>2</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+    <row r="32" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
         <v>24</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="24">
         <v>7</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-    </row>
-    <row r="33" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
         <v>25</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="24">
         <v>2</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+    <row r="34" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
         <v>26</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="36">
         <v>16</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="36">
         <v>2</v>
       </c>
-      <c r="G34" s="28"/>
-    </row>
-    <row r="35" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
         <v>27</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="36">
         <v>16</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="36">
         <v>2</v>
       </c>
-      <c r="G35" s="28"/>
-    </row>
-    <row r="36" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
         <v>28</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="43">
         <v>16</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="43">
         <v>2</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+    <row r="37" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
         <v>29</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="43">
         <v>16</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="43">
         <v>2</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+    <row r="38" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
         <v>30</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="43">
         <v>16</v>
       </c>
-      <c r="F38" s="51">
+      <c r="F38" s="43">
         <v>2</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+    <row r="39" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
         <v>31</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="44">
         <v>8</v>
       </c>
-      <c r="F39" s="51"/>
-      <c r="G39" s="39" t="s">
+      <c r="F39" s="43"/>
+      <c r="G39" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+    <row r="40" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
         <v>32</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29" t="s">
+      <c r="E40" s="24"/>
+      <c r="F40" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22">
+    <row r="41" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
         <v>33</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="24">
         <v>6</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+    <row r="42" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
         <v>34</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29" t="s">
+      <c r="E42" s="24"/>
+      <c r="F42" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="33"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="14">
         <v>35</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="24">
         <v>6</v>
       </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="22">
+      <c r="A44" s="14">
         <v>36</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="37">
         <v>3</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47" t="s">
+      <c r="F44" s="38"/>
+      <c r="G44" s="39" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2202,7 +2206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2240,7 +2244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2254,14 +2258,14 @@
     <col min="3" max="3" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2283,11 +2287,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2299,10 +2303,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C1" t="s">
@@ -2320,14 +2324,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="40" t="s">
         <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLoanBal.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLoanBal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8EA3DB-6110-4FC5-B8F9-8DF57CEE1C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CC571F-EA34-4674-9294-3E1232B24880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -153,10 +153,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -173,9 +169,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
@@ -551,6 +544,9 @@
   <si>
     <t xml:space="preserve">sum(Principal)  from  LoanBorTx </t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -973,9 +969,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1013,9 +1009,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1048,26 +1044,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1100,26 +1079,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1295,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1316,10 +1278,10 @@
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1344,7 +1306,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>13</v>
@@ -1425,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>14</v>
@@ -1501,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>25</v>
@@ -1514,7 +1476,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="81" x14ac:dyDescent="0.3">
@@ -1522,20 +1484,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="27">
         <v>3</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -1543,10 +1505,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>12</v>
@@ -1577,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1585,10 +1547,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>14</v>
@@ -1600,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1629,10 +1591,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>14</v>
@@ -1644,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1652,10 +1614,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>14</v>
@@ -1667,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1675,10 +1637,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>14</v>
@@ -1690,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1698,10 +1660,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>14</v>
@@ -1713,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,10 +1683,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>14</v>
@@ -1736,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1744,10 +1706,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>14</v>
@@ -1759,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="21" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1767,13 +1729,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="27">
         <v>5</v>
@@ -1786,10 +1748,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>12</v>
@@ -1799,7 +1761,7 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="21" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -1807,22 +1769,22 @@
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="24">
         <v>1</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="21" customFormat="1" ht="226.8" x14ac:dyDescent="0.3">
@@ -1830,10 +1792,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>12</v>
@@ -1843,7 +1805,7 @@
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="21" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -1851,20 +1813,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="27">
         <v>1</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1872,22 +1834,22 @@
         <v>22</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E30" s="24">
         <v>1</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1895,10 +1857,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>14</v>
@@ -1907,10 +1869,10 @@
         <v>2</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1918,13 +1880,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E32" s="24">
         <v>7</v>
@@ -1937,22 +1899,22 @@
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="24">
         <v>2</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1960,10 +1922,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>14</v>
@@ -1981,10 +1943,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>14</v>
@@ -2002,10 +1964,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>14</v>
@@ -2017,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2025,10 +1987,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>14</v>
@@ -2040,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2048,10 +2010,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="42" t="s">
         <v>14</v>
@@ -2063,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2071,20 +2033,20 @@
         <v>31</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="44" t="s">
         <v>121</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="E39" s="44">
         <v>8</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2098,14 +2060,14 @@
         <v>33</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2113,22 +2075,22 @@
         <v>33</v>
       </c>
       <c r="B41" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="D41" s="24" t="s">
         <v>37</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>38</v>
       </c>
       <c r="E41" s="24">
         <v>6</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2136,17 +2098,17 @@
         <v>34</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="D42" s="24" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" s="27"/>
     </row>
@@ -2155,13 +2117,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="24">
         <v>6</v>
@@ -2173,10 +2135,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>12</v>
@@ -2186,7 +2148,7 @@
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2260,24 +2222,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2290,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2304,44 +2266,44 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
